--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46181cdbdbc4c9d2/Documents/GitHub/xslx2json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26B4356-0F30-4F3F-8608-BD7145F9AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{D26B4356-0F30-4F3F-8608-BD7145F9AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D815C97E-F8E7-4C19-8F7A-98745B048D7A}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="4860" windowWidth="28800" windowHeight="15370" xr2:uid="{098DE5E5-99BA-4120-8AAC-E3B531A4D0D5}"/>
+    <workbookView xWindow="4860" yWindow="4860" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{098DE5E5-99BA-4120-8AAC-E3B531A4D0D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Character</t>
   </si>
@@ -50,25 +51,67 @@
     <t>villain</t>
   </si>
   <si>
-    <t>Natasha</t>
-  </si>
-  <si>
     <t>villian</t>
   </si>
   <si>
-    <t>Rocky</t>
-  </si>
-  <si>
     <t>hero</t>
   </si>
   <si>
-    <t>Bullwinkle</t>
-  </si>
-  <si>
-    <t>Peabody</t>
-  </si>
-  <si>
-    <t>civilian</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Beaverhausen</t>
+  </si>
+  <si>
+    <t>Natasha Fatale</t>
+  </si>
+  <si>
+    <t>Rocket J. Squirrel</t>
+  </si>
+  <si>
+    <t>Bullwinkle J. Moose</t>
+  </si>
+  <si>
+    <t>Hector J. Peabody</t>
+  </si>
+  <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Wagna Cum Laude, Harvard University</t>
+  </si>
+  <si>
+    <t>Nobel Peace Prize</t>
+  </si>
+  <si>
+    <t>World's Greatest Nogoodnik</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Truman</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Pruitt</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>OlderThanWill</t>
   </si>
 </sst>
 </file>
@@ -419,61 +462,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BDE1E9-8086-49D9-AE15-EA14C32A9DCF}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB03B7A3-7B07-4941-BAF1-67D9C0EA0E4C}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(C2&gt;$C$3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D4" si="0">IF(C3&gt;$C$3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BDE1E9-8086-49D9-AE15-EA14C32A9DCF}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
